--- a/data/nzd0396/nzd0396.xlsx
+++ b/data/nzd0396/nzd0396.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N410"/>
+  <dimension ref="A1:N415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19418,6 +19418,246 @@
         </is>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>343.92</v>
+      </c>
+      <c r="C411" t="n">
+        <v>339.7366666666667</v>
+      </c>
+      <c r="D411" t="n">
+        <v>335.6592307692308</v>
+      </c>
+      <c r="E411" t="n">
+        <v>333.8866666666667</v>
+      </c>
+      <c r="F411" t="n">
+        <v>338.6692307692308</v>
+      </c>
+      <c r="G411" t="n">
+        <v>340.31</v>
+      </c>
+      <c r="H411" t="n">
+        <v>342.7772727272728</v>
+      </c>
+      <c r="I411" t="n">
+        <v>339.0872727272728</v>
+      </c>
+      <c r="J411" t="n">
+        <v>332.6433333333333</v>
+      </c>
+      <c r="K411" t="n">
+        <v>327.71</v>
+      </c>
+      <c r="L411" t="n">
+        <v>336.8266666666667</v>
+      </c>
+      <c r="M411" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>352.79</v>
+      </c>
+      <c r="C412" t="n">
+        <v>339.8433333333333</v>
+      </c>
+      <c r="D412" t="n">
+        <v>341.8861538461539</v>
+      </c>
+      <c r="E412" t="n">
+        <v>344.8733333333333</v>
+      </c>
+      <c r="F412" t="n">
+        <v>344.9561538461539</v>
+      </c>
+      <c r="G412" t="n">
+        <v>341.86</v>
+      </c>
+      <c r="H412" t="n">
+        <v>348.49</v>
+      </c>
+      <c r="I412" t="n">
+        <v>340.45</v>
+      </c>
+      <c r="J412" t="n">
+        <v>334.8266666666667</v>
+      </c>
+      <c r="K412" t="n">
+        <v>332.695</v>
+      </c>
+      <c r="L412" t="n">
+        <v>329.9033333333333</v>
+      </c>
+      <c r="M412" t="n">
+        <v>332.29</v>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:13+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>347.9</v>
+      </c>
+      <c r="C413" t="n">
+        <v>333.6333333333333</v>
+      </c>
+      <c r="D413" t="n">
+        <v>335.4130769230769</v>
+      </c>
+      <c r="E413" t="n">
+        <v>340.0333333333333</v>
+      </c>
+      <c r="F413" t="n">
+        <v>341.7730769230769</v>
+      </c>
+      <c r="G413" t="n">
+        <v>338.2914285714286</v>
+      </c>
+      <c r="H413" t="n">
+        <v>340.3081818181818</v>
+      </c>
+      <c r="I413" t="n">
+        <v>338.5181818181818</v>
+      </c>
+      <c r="J413" t="n">
+        <v>332.6866666666667</v>
+      </c>
+      <c r="K413" t="n">
+        <v>329.33</v>
+      </c>
+      <c r="L413" t="n">
+        <v>324.8533333333333</v>
+      </c>
+      <c r="M413" t="n">
+        <v>322.47</v>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>348.19</v>
+      </c>
+      <c r="C414" t="n">
+        <v>328.0366666666667</v>
+      </c>
+      <c r="D414" t="n">
+        <v>332.7938461538461</v>
+      </c>
+      <c r="E414" t="n">
+        <v>335.4166666666667</v>
+      </c>
+      <c r="F414" t="n">
+        <v>337.4238461538461</v>
+      </c>
+      <c r="G414" t="n">
+        <v>339.6614285714285</v>
+      </c>
+      <c r="H414" t="n">
+        <v>338.1509090909091</v>
+      </c>
+      <c r="I414" t="n">
+        <v>335.6609090909091</v>
+      </c>
+      <c r="J414" t="n">
+        <v>335.9633333333333</v>
+      </c>
+      <c r="K414" t="n">
+        <v>333.38</v>
+      </c>
+      <c r="L414" t="n">
+        <v>334.8766666666667</v>
+      </c>
+      <c r="M414" t="n">
+        <v>323.04</v>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>345.23</v>
+      </c>
+      <c r="C415" t="n">
+        <v>332.47</v>
+      </c>
+      <c r="D415" t="n">
+        <v>337.6984615384616</v>
+      </c>
+      <c r="E415" t="n">
+        <v>340.98</v>
+      </c>
+      <c r="F415" t="n">
+        <v>339.4984615384615</v>
+      </c>
+      <c r="G415" t="n">
+        <v>348.2314285714286</v>
+      </c>
+      <c r="H415" t="n">
+        <v>347.0045454545455</v>
+      </c>
+      <c r="I415" t="n">
+        <v>340.3345454545454</v>
+      </c>
+      <c r="J415" t="n">
+        <v>330.88</v>
+      </c>
+      <c r="K415" t="n">
+        <v>322.815</v>
+      </c>
+      <c r="L415" t="n">
+        <v>317.13</v>
+      </c>
+      <c r="M415" t="n">
+        <v>318.99</v>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19429,7 +19669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B417"/>
+  <dimension ref="A1:B422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23607,6 +23847,56 @@
       </c>
       <c r="B417" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -23775,28 +24065,28 @@
         <v>0.052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7589723200161739</v>
+        <v>0.768432785852828</v>
       </c>
       <c r="J2" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K2" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1904525077327521</v>
+        <v>0.1981519623138196</v>
       </c>
       <c r="M2" t="n">
-        <v>8.714371570673938</v>
+        <v>8.643771309109676</v>
       </c>
       <c r="N2" t="n">
-        <v>134.7819363854657</v>
+        <v>133.3326596329128</v>
       </c>
       <c r="O2" t="n">
-        <v>11.60956228225103</v>
+        <v>11.54697621167173</v>
       </c>
       <c r="P2" t="n">
-        <v>324.4093384993972</v>
+        <v>324.3179444809955</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -23852,28 +24142,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6300566248499538</v>
+        <v>0.6415243325267085</v>
       </c>
       <c r="J3" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K3" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2204245574082533</v>
+        <v>0.2304414029433431</v>
       </c>
       <c r="M3" t="n">
-        <v>6.910544016597592</v>
+        <v>6.880741095344608</v>
       </c>
       <c r="N3" t="n">
-        <v>75.57905164433897</v>
+        <v>75.08674299404221</v>
       </c>
       <c r="O3" t="n">
-        <v>8.693621319354724</v>
+        <v>8.665260699715976</v>
       </c>
       <c r="P3" t="n">
-        <v>314.2769863232109</v>
+        <v>314.1651464497228</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -23929,28 +24219,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6531788725680171</v>
+        <v>0.6611330299204232</v>
       </c>
       <c r="J4" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K4" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2874824825167605</v>
+        <v>0.2974533016209413</v>
       </c>
       <c r="M4" t="n">
-        <v>5.857207723305951</v>
+        <v>5.816873051917467</v>
       </c>
       <c r="N4" t="n">
-        <v>57.52522217527468</v>
+        <v>57.00673911002494</v>
       </c>
       <c r="O4" t="n">
-        <v>7.584538362700441</v>
+        <v>7.55028073054406</v>
       </c>
       <c r="P4" t="n">
-        <v>316.93386695934</v>
+        <v>316.8572216919376</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24006,28 +24296,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6201893284218789</v>
+        <v>0.6240507043479032</v>
       </c>
       <c r="J5" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K5" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2732055004191837</v>
+        <v>0.2803058771622943</v>
       </c>
       <c r="M5" t="n">
-        <v>5.766700599398444</v>
+        <v>5.738737755338577</v>
       </c>
       <c r="N5" t="n">
-        <v>55.53546011149344</v>
+        <v>55.05227496855169</v>
       </c>
       <c r="O5" t="n">
-        <v>7.452211759705533</v>
+        <v>7.419722027714494</v>
       </c>
       <c r="P5" t="n">
-        <v>321.6734304189337</v>
+        <v>321.6360168440873</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24083,28 +24373,28 @@
         <v>0.073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6030371765957255</v>
+        <v>0.5983549892898468</v>
       </c>
       <c r="J6" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K6" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2822004634989865</v>
+        <v>0.2839560234237202</v>
       </c>
       <c r="M6" t="n">
-        <v>5.51162359630402</v>
+        <v>5.479968546887548</v>
       </c>
       <c r="N6" t="n">
-        <v>49.99649881218961</v>
+        <v>49.49029888246481</v>
       </c>
       <c r="O6" t="n">
-        <v>7.070820236167061</v>
+        <v>7.034934177550264</v>
       </c>
       <c r="P6" t="n">
-        <v>326.9707364692792</v>
+        <v>327.0163488260656</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24160,28 +24450,28 @@
         <v>0.0755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6252020309860279</v>
+        <v>0.6190623043441971</v>
       </c>
       <c r="J7" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K7" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.354506245552542</v>
+        <v>0.3547138836711795</v>
       </c>
       <c r="M7" t="n">
-        <v>4.95746955456143</v>
+        <v>4.948504735703406</v>
       </c>
       <c r="N7" t="n">
-        <v>39.01961490376218</v>
+        <v>38.7501744323603</v>
       </c>
       <c r="O7" t="n">
-        <v>6.24656825014841</v>
+        <v>6.224963809722937</v>
       </c>
       <c r="P7" t="n">
-        <v>328.2382249443661</v>
+        <v>328.2974646260207</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24237,28 +24527,28 @@
         <v>0.0649</v>
       </c>
       <c r="I8" t="n">
-        <v>0.656339599150267</v>
+        <v>0.6523518010450988</v>
       </c>
       <c r="J8" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K8" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3045032137078582</v>
+        <v>0.3066905961620978</v>
       </c>
       <c r="M8" t="n">
-        <v>5.595887082414239</v>
+        <v>5.572864459952101</v>
       </c>
       <c r="N8" t="n">
-        <v>53.9201523661107</v>
+        <v>53.4576240490048</v>
       </c>
       <c r="O8" t="n">
-        <v>7.343034275155652</v>
+        <v>7.311472084950116</v>
       </c>
       <c r="P8" t="n">
-        <v>328.2299506532574</v>
+        <v>328.2684427471108</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -24314,28 +24604,28 @@
         <v>0.0601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.604557885922212</v>
+        <v>0.593401476468269</v>
       </c>
       <c r="J9" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K9" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2621961889651411</v>
+        <v>0.259141973837434</v>
       </c>
       <c r="M9" t="n">
-        <v>5.781025302231991</v>
+        <v>5.765355093237617</v>
       </c>
       <c r="N9" t="n">
-        <v>56.18150915748069</v>
+        <v>55.74956133008999</v>
       </c>
       <c r="O9" t="n">
-        <v>7.49543255306061</v>
+        <v>7.466562885966339</v>
       </c>
       <c r="P9" t="n">
-        <v>327.9199015917993</v>
+        <v>328.0281597013001</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -24391,28 +24681,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6259271726751294</v>
+        <v>0.6096062360003216</v>
       </c>
       <c r="J10" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K10" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3310476989091645</v>
+        <v>0.3220933931458863</v>
       </c>
       <c r="M10" t="n">
-        <v>5.140331538333838</v>
+        <v>5.162692896073787</v>
       </c>
       <c r="N10" t="n">
-        <v>43.82742406128308</v>
+        <v>43.87261592276818</v>
       </c>
       <c r="O10" t="n">
-        <v>6.620228399480117</v>
+        <v>6.623640684907975</v>
       </c>
       <c r="P10" t="n">
-        <v>324.2104354969274</v>
+        <v>324.3678115430473</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -24468,28 +24758,28 @@
         <v>0.0954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6911492789202568</v>
+        <v>0.66774359057023</v>
       </c>
       <c r="J11" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K11" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3367778204899967</v>
+        <v>0.321737818461544</v>
       </c>
       <c r="M11" t="n">
-        <v>5.286477442222424</v>
+        <v>5.350173738099923</v>
       </c>
       <c r="N11" t="n">
-        <v>51.45663767780195</v>
+        <v>52.11521913542862</v>
       </c>
       <c r="O11" t="n">
-        <v>7.173328214838769</v>
+        <v>7.219087140035686</v>
       </c>
       <c r="P11" t="n">
-        <v>321.1319221289365</v>
+        <v>321.359064842627</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -24545,28 +24835,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6245504396269255</v>
+        <v>0.6017146799996591</v>
       </c>
       <c r="J12" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K12" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3003495465435314</v>
+        <v>0.2835202397461889</v>
       </c>
       <c r="M12" t="n">
-        <v>5.495396241343911</v>
+        <v>5.545696847000171</v>
       </c>
       <c r="N12" t="n">
-        <v>49.70097097487869</v>
+        <v>50.75498366907276</v>
       </c>
       <c r="O12" t="n">
-        <v>7.04989155766801</v>
+        <v>7.124253200797454</v>
       </c>
       <c r="P12" t="n">
-        <v>321.7936581749566</v>
+        <v>322.015300929677</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -24622,28 +24912,28 @@
         <v>0.0552</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3570958652733786</v>
+        <v>0.3354185637930071</v>
       </c>
       <c r="J13" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K13" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1012983507871683</v>
+        <v>0.09064777131489421</v>
       </c>
       <c r="M13" t="n">
-        <v>6.303713539454066</v>
+        <v>6.345509585690444</v>
       </c>
       <c r="N13" t="n">
-        <v>62.33074398351724</v>
+        <v>63.0726318361267</v>
       </c>
       <c r="O13" t="n">
-        <v>7.894982202862603</v>
+        <v>7.941827990842329</v>
       </c>
       <c r="P13" t="n">
-        <v>326.3119156612596</v>
+        <v>326.5207522342293</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -24680,7 +24970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N410"/>
+  <dimension ref="A1:N415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52764,6 +53054,366 @@
         </is>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-42.505431462366126,173.5099299111042</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-42.50603639783599,173.50956042774257</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-42.506641664772516,173.50919214892727</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-42.507254277176045,173.5088501047217</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-42.50789074858357,173.50858099273714</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>-42.50853345797187,173.50834569171326</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>-42.50918135503575,173.50814912697322</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>-42.50981961850039,173.5078947239057</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>-42.510462635080096,173.5076544555167</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>-42.51110608954758,173.5074329213448</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>-42.51177214069641,173.50737989774777</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>-42.51242532079996,173.50723024348713</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-42.50545975398856,173.51003087216506</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-42.50603673806169,173.50956164186505</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-42.50666152640175,173.5092630268742</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-42.5072893208838,173.50897516157153</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-42.50790864182336,173.5086535935305</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>-42.50853711348756,173.50836389967097</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>-42.509193597445574,173.50821666477344</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>-42.509822111681686,173.50791096526717</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>-42.51046610877913,173.5076806135363</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>-42.511114014749204,173.50749264755808</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>-42.51176129896946,173.50729690742963</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>-42.51241728003546,173.50716776238477</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:13+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-42.50544415692707,173.50997521267388</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-42.506016930525405,173.50949095719125</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-42.50664087963,173.5091893470822</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-42.50727388295667,173.50892006976258</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-42.507899582459736,173.50861683565398</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-42.50852869737428,173.50832197941756</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-42.509176063746324,173.5081199365507</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-42.5098185773179,173.50788794132282</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>-42.51046270402379,173.50765497468348</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>-42.511108665042805,173.50745233086482</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>-42.51175339078686,173.5072363728629</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>-42.51240212441333,173.5070499957432</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:20+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-42.505445081906934,173.50997851354273</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-42.50599907925139,173.50942725375774</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-42.506632525218585,173.50915953370412</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-42.50725915736082,173.50886752009387</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-42.50788720408338,173.50856661115822</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-42.508531928381956,173.50833807290024</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-42.50917144068064,173.50809443255153</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>-42.50981334977745,173.5078538875595</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>-42.510467917221604,173.507694231682</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>-42.51111510376645,173.5075008546718</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>-42.51176908706252,173.50735652300435</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>-42.512403004121786,173.5070568314836</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-42.50543564072862,173.50994482192036</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-42.50601321992999,173.5094777156765</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-42.50664816918493,173.509215360465</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-42.50727690249823,173.50893084529332</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-42.5078931086636,173.50859056861333</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-42.508552139816445,173.50843874530713</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-42.50919041411116,173.50819910322326</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-42.50982190045161,173.50790958924784</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>-42.5104598295997,173.50763332942356</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>-42.51109830739845,173.50737427345263</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>-42.511741296164374,173.5071437929637</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>-42.51239675355272,173.50700826175324</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0396/nzd0396.xlsx
+++ b/data/nzd0396/nzd0396.xlsx
@@ -23910,7 +23910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24001,35 +24001,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24088,27 +24093,28 @@
       <c r="P2" t="n">
         <v>324.3179444809955</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.50601537780622 -42.50433443109724, 173.51620360891644 -42.50718927926557)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.5060153778062</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.50433443109724</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.5162036089164</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.50718927926557</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.5111094933613</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.5057618551814</v>
       </c>
     </row>
@@ -24165,27 +24171,28 @@
       <c r="P3" t="n">
         <v>314.1651464497228</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.50569347583993 -42.504952702646236, 173.51588176488542 -42.507807560107565)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.5056934758399</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.50495270264624</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.5158817648854</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.50780756010757</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.5107876203627</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.5063801313769</v>
       </c>
     </row>
@@ -24242,27 +24249,28 @@
       <c r="P4" t="n">
         <v>316.8572216919376</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.50537157387333 -42.50557096808038, 173.51555992085494 -42.508425834835066)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.5053715738733</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.50557096808038</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.5155599208549</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.50842583483507</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.5104657473642</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.50699840145772</v>
       </c>
     </row>
@@ -24319,27 +24327,28 @@
       <c r="P5" t="n">
         <v>321.6360168440873</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.50504967190645 -42.50618922739974, 173.51523807682514 -42.50904410344786)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.5050496719064</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.50618922739974</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.5152380768251</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.50904410344786</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.5101438743658</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.5076166654238</v>
       </c>
     </row>
@@ -24396,27 +24405,28 @@
       <c r="P6" t="n">
         <v>327.0163488260656</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.50467013309856 -42.50692679220042, 173.51500677109644 -42.50947423186596)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.5046701330986</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.50692679220042</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.5150067710964</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.50947423186596</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.5098384520975</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.50820051203318</v>
       </c>
     </row>
@@ -24473,27 +24483,28 @@
       <c r="P7" t="n">
         <v>328.2974646260207</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.5043480972472 -42.5077308014457, 173.5148633560366 -42.50984176251326)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.5043480972472</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.5077308014457</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.5148633560366</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.50984176251326</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.5096057266419</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.50878628197948</v>
       </c>
     </row>
@@ -24550,27 +24561,28 @@
       <c r="P8" t="n">
         <v>328.2684427471108</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.50409674532872 -42.508446708079084, 173.51467948799896 -42.51036489070686)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.5040967453287</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.50844670807908</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.514679487999</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.51036489070686</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.5093881166638</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.50940579939297</v>
       </c>
     </row>
@@ -24627,27 +24639,28 @@
       <c r="P9" t="n">
         <v>328.0281597013001</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.50385342724056 -42.50919916868772, 173.51452220427223 -42.51083678272634)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.5038534272406</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-42.50919916868772</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.5145222042722</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-42.51083678272634</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.5091878157564</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-42.51001797570703</v>
       </c>
     </row>
@@ -24704,27 +24717,28 @@
       <c r="P10" t="n">
         <v>324.3678115430473</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.5036691646661 -42.50993332719035, 173.5143939738915 -42.5113574105228)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.5036691646661</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-42.50993332719035</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.5143939738915</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-42.5113574105228</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.5090315692788</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-42.51064536885657</v>
       </c>
     </row>
@@ -24781,27 +24795,28 @@
       <c r="P11" t="n">
         <v>321.359064842627</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.5035065992812 -42.51058502451127, 173.51423174472654 -42.51200802716877)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.5035065992812</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-42.51058502451127</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.5142317447265</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-42.51200802716877</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.5088691720039</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-42.51129652584002</v>
       </c>
     </row>
@@ -24858,27 +24873,28 @@
       <c r="P12" t="n">
         <v>322.015300929677</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.50334237346064 -42.51124461064072, 173.51407273752653 -42.51264627242498)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.5033423734606</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-42.51124461064072</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.5140727375265</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-42.51264627242498</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.5087075554936</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-42.51194544153285</v>
       </c>
     </row>
@@ -24935,27 +24951,28 @@
       <c r="P13" t="n">
         <v>326.5207522342293</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.5031827956854 -42.51190437537133, 173.51391804493394 -42.51328577241611)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.5031827956854</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-42.51190437537133</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.5139180449339</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-42.51328577241611</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.5085504203097</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-42.51259507389372</v>
       </c>
     </row>

--- a/data/nzd0396/nzd0396.xlsx
+++ b/data/nzd0396/nzd0396.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N415"/>
+  <dimension ref="A1:N418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19658,6 +19658,146 @@
         </is>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="n">
+        <v>329.79</v>
+      </c>
+      <c r="D416" t="n">
+        <v>331.3123076923077</v>
+      </c>
+      <c r="E416" t="n">
+        <v>333.53</v>
+      </c>
+      <c r="F416" t="n">
+        <v>343.6623076923077</v>
+      </c>
+      <c r="G416" t="n">
+        <v>341.3771428571428</v>
+      </c>
+      <c r="H416" t="n">
+        <v>343.8627272727272</v>
+      </c>
+      <c r="I416" t="n">
+        <v>345.6627272727272</v>
+      </c>
+      <c r="J416" t="n">
+        <v>342.33</v>
+      </c>
+      <c r="K416" t="n">
+        <v>330.155</v>
+      </c>
+      <c r="L416" t="n">
+        <v>329.54</v>
+      </c>
+      <c r="M416" t="n">
+        <v>326.59</v>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>351.62</v>
+      </c>
+      <c r="C417" t="n">
+        <v>332.73</v>
+      </c>
+      <c r="D417" t="n">
+        <v>340.86</v>
+      </c>
+      <c r="E417" t="n">
+        <v>340.62</v>
+      </c>
+      <c r="F417" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="G417" t="n">
+        <v>351.4914285714286</v>
+      </c>
+      <c r="H417" t="n">
+        <v>347.990909090909</v>
+      </c>
+      <c r="I417" t="n">
+        <v>346.2509090909091</v>
+      </c>
+      <c r="J417" t="n">
+        <v>344.01</v>
+      </c>
+      <c r="K417" t="n">
+        <v>337.005</v>
+      </c>
+      <c r="L417" t="n">
+        <v>333.32</v>
+      </c>
+      <c r="M417" t="n">
+        <v>333.23</v>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="n">
+        <v>336.0166666666667</v>
+      </c>
+      <c r="D418" t="n">
+        <v>338.6046153846154</v>
+      </c>
+      <c r="E418" t="n">
+        <v>340.7266666666667</v>
+      </c>
+      <c r="F418" t="n">
+        <v>351.1746153846154</v>
+      </c>
+      <c r="G418" t="n">
+        <v>347.81</v>
+      </c>
+      <c r="H418" t="n">
+        <v>343.3281818181818</v>
+      </c>
+      <c r="I418" t="n">
+        <v>347.5281818181818</v>
+      </c>
+      <c r="J418" t="n">
+        <v>343.0233333333334</v>
+      </c>
+      <c r="K418" t="n">
+        <v>339.47</v>
+      </c>
+      <c r="L418" t="n">
+        <v>339.3666666666667</v>
+      </c>
+      <c r="M418" t="n">
+        <v>331.46</v>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19669,7 +19809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B422"/>
+  <dimension ref="A1:B425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23897,6 +24037,36 @@
       </c>
       <c r="B422" t="n">
         <v>-0.03</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -24070,28 +24240,28 @@
         <v>0.052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.768432785852828</v>
+        <v>0.7721947152834165</v>
       </c>
       <c r="J2" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K2" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1981519623138196</v>
+        <v>0.2003849670260373</v>
       </c>
       <c r="M2" t="n">
-        <v>8.643771309109676</v>
+        <v>8.638514463822501</v>
       </c>
       <c r="N2" t="n">
-        <v>133.3326596329128</v>
+        <v>133.1342543703504</v>
       </c>
       <c r="O2" t="n">
-        <v>11.54697621167173</v>
+        <v>11.53838179167037</v>
       </c>
       <c r="P2" t="n">
-        <v>324.3179444809955</v>
+        <v>324.281292888334</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24148,28 +24318,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6415243325267085</v>
+        <v>0.6449867289479537</v>
       </c>
       <c r="J3" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K3" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2304414029433431</v>
+        <v>0.2351547391457713</v>
       </c>
       <c r="M3" t="n">
-        <v>6.880741095344608</v>
+        <v>6.844961145635714</v>
       </c>
       <c r="N3" t="n">
-        <v>75.08674299404221</v>
+        <v>74.5704643101497</v>
       </c>
       <c r="O3" t="n">
-        <v>8.665260699715976</v>
+        <v>8.635419173968899</v>
       </c>
       <c r="P3" t="n">
-        <v>314.1651464497228</v>
+        <v>314.1309279077768</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24226,28 +24396,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6611330299204232</v>
+        <v>0.665888100750615</v>
       </c>
       <c r="J4" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K4" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2974533016209413</v>
+        <v>0.3032306957616607</v>
       </c>
       <c r="M4" t="n">
-        <v>5.816873051917467</v>
+        <v>5.803690223477735</v>
       </c>
       <c r="N4" t="n">
-        <v>57.00673911002494</v>
+        <v>56.75996916614939</v>
       </c>
       <c r="O4" t="n">
-        <v>7.55028073054406</v>
+        <v>7.53392123440041</v>
       </c>
       <c r="P4" t="n">
-        <v>316.8572216919376</v>
+        <v>316.8108836237234</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24304,28 +24474,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6240507043479032</v>
+        <v>0.625015354542021</v>
       </c>
       <c r="J5" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K5" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2803058771622943</v>
+        <v>0.2838792449559286</v>
       </c>
       <c r="M5" t="n">
-        <v>5.738737755338577</v>
+        <v>5.719902626249405</v>
       </c>
       <c r="N5" t="n">
-        <v>55.05227496855169</v>
+        <v>54.71928267409457</v>
       </c>
       <c r="O5" t="n">
-        <v>7.419722027714494</v>
+        <v>7.397248317725624</v>
       </c>
       <c r="P5" t="n">
-        <v>321.6360168440873</v>
+        <v>321.6264943619631</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24382,28 +24552,28 @@
         <v>0.073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5983549892898468</v>
+        <v>0.6048720885074967</v>
       </c>
       <c r="J6" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K6" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2839560234237202</v>
+        <v>0.2907504942776745</v>
       </c>
       <c r="M6" t="n">
-        <v>5.479968546887548</v>
+        <v>5.469126030345454</v>
       </c>
       <c r="N6" t="n">
-        <v>49.49029888246481</v>
+        <v>49.33355557485545</v>
       </c>
       <c r="O6" t="n">
-        <v>7.034934177550264</v>
+        <v>7.023784989224502</v>
       </c>
       <c r="P6" t="n">
-        <v>327.0163488260656</v>
+        <v>326.9522758978796</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24460,28 +24630,28 @@
         <v>0.0755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6190623043441971</v>
+        <v>0.6230252942085104</v>
       </c>
       <c r="J7" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K7" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3547138836711795</v>
+        <v>0.3601646458266289</v>
       </c>
       <c r="M7" t="n">
-        <v>4.948504735703406</v>
+        <v>4.944092501712018</v>
       </c>
       <c r="N7" t="n">
-        <v>38.7501744323603</v>
+        <v>38.6406404531534</v>
       </c>
       <c r="O7" t="n">
-        <v>6.224963809722937</v>
+        <v>6.216159622560653</v>
       </c>
       <c r="P7" t="n">
-        <v>328.2974646260207</v>
+        <v>328.258751748064</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24538,28 +24708,28 @@
         <v>0.0649</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6523518010450988</v>
+        <v>0.6524174666744338</v>
       </c>
       <c r="J8" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K8" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3066905961620978</v>
+        <v>0.3099902738133692</v>
       </c>
       <c r="M8" t="n">
-        <v>5.572864459952101</v>
+        <v>5.545125973841841</v>
       </c>
       <c r="N8" t="n">
-        <v>53.4576240490048</v>
+        <v>53.08282959977652</v>
       </c>
       <c r="O8" t="n">
-        <v>7.311472084950116</v>
+        <v>7.285796428653255</v>
       </c>
       <c r="P8" t="n">
-        <v>328.2684427471108</v>
+        <v>328.267813840699</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24616,28 +24786,28 @@
         <v>0.0601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.593401476468269</v>
+        <v>0.5981269726690404</v>
       </c>
       <c r="J9" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K9" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L9" t="n">
-        <v>0.259141973837434</v>
+        <v>0.2649865847530468</v>
       </c>
       <c r="M9" t="n">
-        <v>5.765355093237617</v>
+        <v>5.744781671430044</v>
       </c>
       <c r="N9" t="n">
-        <v>55.74956133008999</v>
+        <v>55.40290345845743</v>
       </c>
       <c r="O9" t="n">
-        <v>7.466562885966339</v>
+        <v>7.443312666982184</v>
       </c>
       <c r="P9" t="n">
-        <v>328.0281597013001</v>
+        <v>327.9819027791408</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24694,28 +24864,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6096062360003216</v>
+        <v>0.6140621372283898</v>
       </c>
       <c r="J10" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K10" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3220933931458863</v>
+        <v>0.3283069032025148</v>
       </c>
       <c r="M10" t="n">
-        <v>5.162692896073787</v>
+        <v>5.145708405949263</v>
       </c>
       <c r="N10" t="n">
-        <v>43.87261592276818</v>
+        <v>43.6130996546811</v>
       </c>
       <c r="O10" t="n">
-        <v>6.623640684907975</v>
+        <v>6.60402147594033</v>
       </c>
       <c r="P10" t="n">
-        <v>324.3678115430473</v>
+        <v>324.3244706061596</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24772,28 +24942,28 @@
         <v>0.0954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.66774359057023</v>
+        <v>0.6634688511999151</v>
       </c>
       <c r="J11" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K11" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L11" t="n">
-        <v>0.321737818461544</v>
+        <v>0.321594803218643</v>
       </c>
       <c r="M11" t="n">
-        <v>5.350173738099923</v>
+        <v>5.338028816724541</v>
       </c>
       <c r="N11" t="n">
-        <v>52.11521913542862</v>
+        <v>51.89852645665711</v>
       </c>
       <c r="O11" t="n">
-        <v>7.219087140035686</v>
+        <v>7.204063190773462</v>
       </c>
       <c r="P11" t="n">
-        <v>321.359064842627</v>
+        <v>321.4007436034202</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24850,28 +25020,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6017146799996591</v>
+        <v>0.5966488464526546</v>
       </c>
       <c r="J12" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K12" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2835202397461889</v>
+        <v>0.2825207598570809</v>
       </c>
       <c r="M12" t="n">
-        <v>5.545696847000171</v>
+        <v>5.54006200665083</v>
       </c>
       <c r="N12" t="n">
-        <v>50.75498366907276</v>
+        <v>50.56942712312875</v>
       </c>
       <c r="O12" t="n">
-        <v>7.124253200797454</v>
+        <v>7.111218399341195</v>
       </c>
       <c r="P12" t="n">
-        <v>322.015300929677</v>
+        <v>322.0646603245888</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24928,28 +25098,28 @@
         <v>0.0552</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3354185637930071</v>
+        <v>0.3283734091127131</v>
       </c>
       <c r="J13" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K13" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09064777131489421</v>
+        <v>0.08821943776099062</v>
       </c>
       <c r="M13" t="n">
-        <v>6.345509585690444</v>
+        <v>6.332215085031423</v>
       </c>
       <c r="N13" t="n">
-        <v>63.0726318361267</v>
+        <v>62.80689337250394</v>
       </c>
       <c r="O13" t="n">
-        <v>7.941827990842329</v>
+        <v>7.925080023097808</v>
       </c>
       <c r="P13" t="n">
-        <v>326.5207522342293</v>
+        <v>326.5889874346466</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24987,7 +25157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N415"/>
+  <dimension ref="A1:N418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53431,6 +53601,214 @@
         </is>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-42.506004671732974,173.50944721087475</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-42.50662779963617,173.5091426701052</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-42.50725313952911,173.5088460449294</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-42.507904959405835,173.50863865231406</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-42.50853597471892,173.50835822751432</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>-42.50918368117462,173.50816195958316</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>-42.50983164861947,173.50797309200786</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>-42.510478046590805,173.50777050928642</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>-42.51110997663631,173.50746221534322</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>-42.511760729999,173.50729255213687</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>-42.51240848299868,173.50709940495872</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-42.50545602217878,173.51001755486098</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-42.506014049232256,173.509480675098</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-42.506658253345705,173.50925134667582</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-42.50727575422198,173.50892674755616</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-42.50791018966415,173.50865987381638</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>-42.508559828156756,173.50847704077864</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>-42.509192527892274,173.50821076435034</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>-42.50983272472455,173.50798010212432</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>-42.51048071946297,173.50779063699338</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>-42.511120866804085,173.5075442864826</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>-42.51176664937184,173.5073378631681</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>-42.51241873077093,173.5071790353656</t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>-42.50602453245676,173.50951808522777</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>-42.506651059488135,173.50922567475976</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>-42.507276094452,173.5089279617005</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>-42.50792634016895,173.5087254037768</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>-42.508551145924,173.50843379475387</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>-42.50918253563909,173.50815564000627</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>-42.509835061550966,173.50799532502106</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>-42.51047914968132,173.50777881595891</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>-42.51112478566025,173.50757382011844</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>-42.511776118243134,173.50741034485273</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>-42.51241599906598,173.50715780858295</t>
+        </is>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0396/nzd0396.xlsx
+++ b/data/nzd0396/nzd0396.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N418"/>
+  <dimension ref="A1:N420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19798,6 +19798,102 @@
         </is>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>346.25</v>
+      </c>
+      <c r="C419" t="n">
+        <v>332.67</v>
+      </c>
+      <c r="D419" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="E419" t="n">
+        <v>340.77</v>
+      </c>
+      <c r="F419" t="n">
+        <v>344.76</v>
+      </c>
+      <c r="G419" t="n">
+        <v>348.9</v>
+      </c>
+      <c r="H419" t="n">
+        <v>345.09</v>
+      </c>
+      <c r="I419" t="n">
+        <v>339.76</v>
+      </c>
+      <c r="J419" t="n">
+        <v>344.13</v>
+      </c>
+      <c r="K419" t="n">
+        <v>337.26</v>
+      </c>
+      <c r="L419" t="n">
+        <v>340.01</v>
+      </c>
+      <c r="M419" t="n">
+        <v>332.6</v>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>344.38</v>
+      </c>
+      <c r="C420" t="n">
+        <v>335.8966666666667</v>
+      </c>
+      <c r="D420" t="n">
+        <v>337.7469230769231</v>
+      </c>
+      <c r="E420" t="n">
+        <v>342.0666666666667</v>
+      </c>
+      <c r="F420" t="n">
+        <v>349.9969230769231</v>
+      </c>
+      <c r="G420" t="n">
+        <v>352.05</v>
+      </c>
+      <c r="H420" t="n">
+        <v>352.8027272727272</v>
+      </c>
+      <c r="I420" t="n">
+        <v>347.7127272727272</v>
+      </c>
+      <c r="J420" t="n">
+        <v>347.0133333333333</v>
+      </c>
+      <c r="K420" t="n">
+        <v>343.085</v>
+      </c>
+      <c r="L420" t="n">
+        <v>343.7866666666667</v>
+      </c>
+      <c r="M420" t="n">
+        <v>339</v>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19809,7 +19905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B425"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24067,6 +24163,26 @@
       </c>
       <c r="B425" t="n">
         <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -24240,28 +24356,28 @@
         <v>0.052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7721947152834165</v>
+        <v>0.7732763278008098</v>
       </c>
       <c r="J2" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K2" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2003849670260373</v>
+        <v>0.2025620084471338</v>
       </c>
       <c r="M2" t="n">
-        <v>8.638514463822501</v>
+        <v>8.598833884948892</v>
       </c>
       <c r="N2" t="n">
-        <v>133.1342543703504</v>
+        <v>132.4569811818234</v>
       </c>
       <c r="O2" t="n">
-        <v>11.53838179167037</v>
+        <v>11.50899566347227</v>
       </c>
       <c r="P2" t="n">
-        <v>324.281292888334</v>
+        <v>324.2706850209931</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24318,28 +24434,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6449867289479537</v>
+        <v>0.6486092455687489</v>
       </c>
       <c r="J3" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K3" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2351547391457713</v>
+        <v>0.2390215979721769</v>
       </c>
       <c r="M3" t="n">
-        <v>6.844961145635714</v>
+        <v>6.824474426157081</v>
       </c>
       <c r="N3" t="n">
-        <v>74.5704643101497</v>
+        <v>74.24967359114072</v>
       </c>
       <c r="O3" t="n">
-        <v>8.635419173968899</v>
+        <v>8.616825029623191</v>
       </c>
       <c r="P3" t="n">
-        <v>314.1309279077768</v>
+        <v>314.0949493694989</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24396,28 +24512,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.665888100750615</v>
+        <v>0.6678403150700515</v>
       </c>
       <c r="J4" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K4" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3032306957616607</v>
+        <v>0.3067056951955806</v>
       </c>
       <c r="M4" t="n">
-        <v>5.803690223477735</v>
+        <v>5.78128034551971</v>
       </c>
       <c r="N4" t="n">
-        <v>56.75996916614939</v>
+        <v>56.49885511701001</v>
       </c>
       <c r="O4" t="n">
-        <v>7.53392123440041</v>
+        <v>7.516572032316993</v>
       </c>
       <c r="P4" t="n">
-        <v>316.8108836237234</v>
+        <v>316.7917463126229</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24474,28 +24590,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.625015354542021</v>
+        <v>0.6286164082923609</v>
       </c>
       <c r="J5" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K5" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2838792449559286</v>
+        <v>0.2881743500905656</v>
       </c>
       <c r="M5" t="n">
-        <v>5.719902626249405</v>
+        <v>5.706933320276879</v>
       </c>
       <c r="N5" t="n">
-        <v>54.71928267409457</v>
+        <v>54.51019061163148</v>
       </c>
       <c r="O5" t="n">
-        <v>7.397248317725624</v>
+        <v>7.383101693166056</v>
       </c>
       <c r="P5" t="n">
-        <v>321.6264943619631</v>
+        <v>321.5910928319304</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24552,28 +24668,28 @@
         <v>0.073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6048720885074967</v>
+        <v>0.6095966792326607</v>
       </c>
       <c r="J6" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K6" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2907504942776745</v>
+        <v>0.2955610932951829</v>
       </c>
       <c r="M6" t="n">
-        <v>5.469126030345454</v>
+        <v>5.463930746992268</v>
       </c>
       <c r="N6" t="n">
-        <v>49.33355557485545</v>
+        <v>49.23326356726533</v>
       </c>
       <c r="O6" t="n">
-        <v>7.023784989224502</v>
+        <v>7.01664190102825</v>
       </c>
       <c r="P6" t="n">
-        <v>326.9522758978796</v>
+        <v>326.9055376150133</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24630,28 +24746,28 @@
         <v>0.0755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6230252942085104</v>
+        <v>0.6289783563323039</v>
       </c>
       <c r="J7" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K7" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3601646458266289</v>
+        <v>0.3658076998379702</v>
       </c>
       <c r="M7" t="n">
-        <v>4.944092501712018</v>
+        <v>4.947855845861129</v>
       </c>
       <c r="N7" t="n">
-        <v>38.6406404531534</v>
+        <v>38.64450261992003</v>
       </c>
       <c r="O7" t="n">
-        <v>6.216159622560653</v>
+        <v>6.216470270171009</v>
       </c>
       <c r="P7" t="n">
-        <v>328.258751748064</v>
+        <v>328.2002902132008</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24708,28 +24824,28 @@
         <v>0.0649</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6524174666744338</v>
+        <v>0.6561489890726019</v>
       </c>
       <c r="J8" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K8" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3099902738133692</v>
+        <v>0.3141193725137338</v>
       </c>
       <c r="M8" t="n">
-        <v>5.545125973841841</v>
+        <v>5.537074926364241</v>
       </c>
       <c r="N8" t="n">
-        <v>53.08282959977652</v>
+        <v>52.96194508762756</v>
       </c>
       <c r="O8" t="n">
-        <v>7.285796428653255</v>
+        <v>7.277495797843346</v>
       </c>
       <c r="P8" t="n">
-        <v>328.267813840699</v>
+        <v>328.2312111873032</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24786,28 +24902,28 @@
         <v>0.0601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5981269726690404</v>
+        <v>0.5984362191668209</v>
       </c>
       <c r="J9" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K9" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2649865847530468</v>
+        <v>0.2669705333661986</v>
       </c>
       <c r="M9" t="n">
-        <v>5.744781671430044</v>
+        <v>5.735649622017827</v>
       </c>
       <c r="N9" t="n">
-        <v>55.40290345845743</v>
+        <v>55.20085426757298</v>
       </c>
       <c r="O9" t="n">
-        <v>7.443312666982184</v>
+        <v>7.429727738455359</v>
       </c>
       <c r="P9" t="n">
-        <v>327.9819027791408</v>
+        <v>327.9788131859828</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24864,28 +24980,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6140621372283898</v>
+        <v>0.6192144493003967</v>
       </c>
       <c r="J10" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K10" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3283069032025148</v>
+        <v>0.333508120049535</v>
       </c>
       <c r="M10" t="n">
-        <v>5.145708405949263</v>
+        <v>5.145390250741032</v>
       </c>
       <c r="N10" t="n">
-        <v>43.6130996546811</v>
+        <v>43.54744871906286</v>
       </c>
       <c r="O10" t="n">
-        <v>6.60402147594033</v>
+        <v>6.599049076879401</v>
       </c>
       <c r="P10" t="n">
-        <v>324.3244706061596</v>
+        <v>324.2739623422917</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24942,28 +25058,28 @@
         <v>0.0954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6634688511999151</v>
+        <v>0.6650622616727357</v>
       </c>
       <c r="J11" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K11" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L11" t="n">
-        <v>0.321594803218643</v>
+        <v>0.3247032039617537</v>
       </c>
       <c r="M11" t="n">
-        <v>5.338028816724541</v>
+        <v>5.325106814967982</v>
       </c>
       <c r="N11" t="n">
-        <v>51.89852645665711</v>
+        <v>51.69113248834944</v>
       </c>
       <c r="O11" t="n">
-        <v>7.204063190773462</v>
+        <v>7.189654545828293</v>
       </c>
       <c r="P11" t="n">
-        <v>321.4007436034202</v>
+        <v>321.3850043435856</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25020,28 +25136,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5966488464526546</v>
+        <v>0.601085884123398</v>
       </c>
       <c r="J12" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K12" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2825207598570809</v>
+        <v>0.2872691644606604</v>
       </c>
       <c r="M12" t="n">
-        <v>5.54006200665083</v>
+        <v>5.532395253606868</v>
       </c>
       <c r="N12" t="n">
-        <v>50.56942712312875</v>
+        <v>50.42362310950315</v>
       </c>
       <c r="O12" t="n">
-        <v>7.111218399341195</v>
+        <v>7.100959309100648</v>
       </c>
       <c r="P12" t="n">
-        <v>322.0646603245888</v>
+        <v>322.020936806263</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25098,28 +25214,28 @@
         <v>0.0552</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3283734091127131</v>
+        <v>0.329110098580691</v>
       </c>
       <c r="J13" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K13" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08821943776099062</v>
+        <v>0.08939225863603684</v>
       </c>
       <c r="M13" t="n">
-        <v>6.332215085031423</v>
+        <v>6.315813942261159</v>
       </c>
       <c r="N13" t="n">
-        <v>62.80689337250394</v>
+        <v>62.53418782532028</v>
       </c>
       <c r="O13" t="n">
-        <v>7.925080023097808</v>
+        <v>7.907856082739511</v>
       </c>
       <c r="P13" t="n">
-        <v>326.5889874346466</v>
+        <v>326.5817555999506</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25157,7 +25273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N418"/>
+  <dimension ref="A1:N420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53809,6 +53925,150 @@
         </is>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>-42.50543889410878,173.50995643187017</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>-42.50601385785482,173.50947999215455</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>-42.506636691384195,173.50917440099127</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>-42.50727623267044,173.50892845494664</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>-42.50790808354973,173.5086513283638</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>-42.508553716567384,173.50844659906653</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>-42.50918631122939,173.50817646881666</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>-42.50982084929065,173.5079027416557</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>-42.51048091038228,173.5077920746868</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>-42.51112127220335,173.50754734168615</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>-42.511777125678215,173.50741805652166</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>-42.512417758469624,173.50717148006987</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>-42.50543292957761,173.50993514696307</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>-42.50602414970232,173.50951671934044</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>-42.506648323759734,173.50921591207836</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>-42.507280368590465,173.50894321438977</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>-42.507922988345726,173.50871180388665</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>-42.50856114548283,173.50848360236122</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>-42.50920283962027,173.5082676513159</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>-42.50983539918479,173.50799752448594</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>-42.51048549774349,173.50782661926738</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>-42.51113053277221,173.50761713213046</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>-42.51178303978148,173.50746332761926</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>-42.51242763579302,173.5072482322911</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0396/nzd0396.xlsx
+++ b/data/nzd0396/nzd0396.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N420"/>
+  <dimension ref="A1:N421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19894,6 +19894,54 @@
         </is>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>345.77</v>
+      </c>
+      <c r="C421" t="n">
+        <v>325.2333333333333</v>
+      </c>
+      <c r="D421" t="n">
+        <v>331.5015384615385</v>
+      </c>
+      <c r="E421" t="n">
+        <v>338.6933333333333</v>
+      </c>
+      <c r="F421" t="n">
+        <v>342.8515384615384</v>
+      </c>
+      <c r="G421" t="n">
+        <v>344.0828571428572</v>
+      </c>
+      <c r="H421" t="n">
+        <v>342.3927272727273</v>
+      </c>
+      <c r="I421" t="n">
+        <v>344.4527272727273</v>
+      </c>
+      <c r="J421" t="n">
+        <v>340.5366666666667</v>
+      </c>
+      <c r="K421" t="n">
+        <v>332.885</v>
+      </c>
+      <c r="L421" t="n">
+        <v>336.3433333333333</v>
+      </c>
+      <c r="M421" t="n">
+        <v>334.87</v>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19905,7 +19953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B427"/>
+  <dimension ref="A1:B428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24183,6 +24231,16 @@
       </c>
       <c r="B427" t="n">
         <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -24356,28 +24414,28 @@
         <v>0.052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7732763278008098</v>
+        <v>0.7740153573901746</v>
       </c>
       <c r="J2" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K2" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2025620084471338</v>
+        <v>0.2037327619650371</v>
       </c>
       <c r="M2" t="n">
-        <v>8.598833884948892</v>
+        <v>8.58004357726568</v>
       </c>
       <c r="N2" t="n">
-        <v>132.4569811818234</v>
+        <v>132.1213258442992</v>
       </c>
       <c r="O2" t="n">
-        <v>11.50899566347227</v>
+        <v>11.49440411001367</v>
       </c>
       <c r="P2" t="n">
-        <v>324.2706850209931</v>
+        <v>324.2634146268551</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24434,28 +24492,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6486092455687489</v>
+        <v>0.6457029331614321</v>
       </c>
       <c r="J3" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K3" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2390215979721769</v>
+        <v>0.2381951192621727</v>
       </c>
       <c r="M3" t="n">
-        <v>6.824474426157081</v>
+        <v>6.823249528019092</v>
       </c>
       <c r="N3" t="n">
-        <v>74.24967359114072</v>
+        <v>74.13578416309112</v>
       </c>
       <c r="O3" t="n">
-        <v>8.616825029623191</v>
+        <v>8.610213944095182</v>
       </c>
       <c r="P3" t="n">
-        <v>314.0949493694989</v>
+        <v>314.1238616753076</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24512,28 +24570,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6678403150700515</v>
+        <v>0.6665419793126526</v>
       </c>
       <c r="J4" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K4" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3067056951955806</v>
+        <v>0.3069926377567944</v>
       </c>
       <c r="M4" t="n">
-        <v>5.78128034551971</v>
+        <v>5.774195460939074</v>
       </c>
       <c r="N4" t="n">
-        <v>56.49885511701001</v>
+        <v>56.36838209141028</v>
       </c>
       <c r="O4" t="n">
-        <v>7.516572032316993</v>
+        <v>7.50788799140013</v>
       </c>
       <c r="P4" t="n">
-        <v>316.7917463126229</v>
+        <v>316.8044878751966</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24590,28 +24648,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6286164082923609</v>
+        <v>0.6290296558681181</v>
       </c>
       <c r="J5" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K5" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2881743500905656</v>
+        <v>0.2895387444626435</v>
       </c>
       <c r="M5" t="n">
-        <v>5.706933320276879</v>
+        <v>5.694363413915926</v>
       </c>
       <c r="N5" t="n">
-        <v>54.51019061163148</v>
+        <v>54.37396952835601</v>
       </c>
       <c r="O5" t="n">
-        <v>7.383101693166056</v>
+        <v>7.373870729023937</v>
       </c>
       <c r="P5" t="n">
-        <v>321.5910928319304</v>
+        <v>321.5870224298098</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24668,28 +24726,28 @@
         <v>0.073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6095966792326607</v>
+        <v>0.6096834623122782</v>
       </c>
       <c r="J6" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K6" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2955610932951829</v>
+        <v>0.2967265165881303</v>
       </c>
       <c r="M6" t="n">
-        <v>5.463930746992268</v>
+        <v>5.450543876093847</v>
       </c>
       <c r="N6" t="n">
-        <v>49.23326356726533</v>
+        <v>49.10901602468127</v>
       </c>
       <c r="O6" t="n">
-        <v>7.01664190102825</v>
+        <v>7.007782532633363</v>
       </c>
       <c r="P6" t="n">
-        <v>326.9055376150133</v>
+        <v>326.9046777896385</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24746,28 +24804,28 @@
         <v>0.0755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6289783563323039</v>
+        <v>0.6287909948141056</v>
       </c>
       <c r="J7" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K7" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3658076998379702</v>
+        <v>0.3668854237691338</v>
       </c>
       <c r="M7" t="n">
-        <v>4.947855845861129</v>
+        <v>4.936369929494581</v>
       </c>
       <c r="N7" t="n">
-        <v>38.64450261992003</v>
+        <v>38.54704534117975</v>
       </c>
       <c r="O7" t="n">
-        <v>6.216470270171009</v>
+        <v>6.208626687213505</v>
       </c>
       <c r="P7" t="n">
-        <v>328.2002902132008</v>
+        <v>328.2021336387498</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24824,28 +24882,28 @@
         <v>0.0649</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6561489890726019</v>
+        <v>0.6547877412167323</v>
       </c>
       <c r="J8" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K8" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3141193725137338</v>
+        <v>0.3142797341614847</v>
       </c>
       <c r="M8" t="n">
-        <v>5.537074926364241</v>
+        <v>5.529894474142292</v>
       </c>
       <c r="N8" t="n">
-        <v>52.96194508762756</v>
+        <v>52.84800483529993</v>
       </c>
       <c r="O8" t="n">
-        <v>7.277495797843346</v>
+        <v>7.269663323380247</v>
       </c>
       <c r="P8" t="n">
-        <v>328.2312111873032</v>
+        <v>328.2445779517139</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24902,28 +24960,28 @@
         <v>0.0601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5984362191668209</v>
+        <v>0.5989194764848793</v>
       </c>
       <c r="J9" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K9" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2669705333661986</v>
+        <v>0.2683082271561799</v>
       </c>
       <c r="M9" t="n">
-        <v>5.735649622017827</v>
+        <v>5.723498279476391</v>
       </c>
       <c r="N9" t="n">
-        <v>55.20085426757298</v>
+        <v>55.0628888048593</v>
       </c>
       <c r="O9" t="n">
-        <v>7.429727738455359</v>
+        <v>7.420437238118741</v>
       </c>
       <c r="P9" t="n">
-        <v>327.9788131859828</v>
+        <v>327.9740392882562</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24980,28 +25038,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6192144493003967</v>
+        <v>0.6193312314752385</v>
       </c>
       <c r="J10" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K10" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L10" t="n">
-        <v>0.333508120049535</v>
+        <v>0.3347344234328454</v>
       </c>
       <c r="M10" t="n">
-        <v>5.145390250741032</v>
+        <v>5.132976528751943</v>
       </c>
       <c r="N10" t="n">
-        <v>43.54744871906286</v>
+        <v>43.43763126677998</v>
       </c>
       <c r="O10" t="n">
-        <v>6.599049076879401</v>
+        <v>6.590723121690061</v>
       </c>
       <c r="P10" t="n">
-        <v>324.2739623422917</v>
+        <v>324.2728153400475</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25058,28 +25116,28 @@
         <v>0.0954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6650622616727357</v>
+        <v>0.6623095660844966</v>
       </c>
       <c r="J11" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K11" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3247032039617537</v>
+        <v>0.3236805823935363</v>
       </c>
       <c r="M11" t="n">
-        <v>5.325106814967982</v>
+        <v>5.326876314079237</v>
       </c>
       <c r="N11" t="n">
-        <v>51.69113248834944</v>
+        <v>51.64198223778728</v>
       </c>
       <c r="O11" t="n">
-        <v>7.189654545828293</v>
+        <v>7.186235609676827</v>
       </c>
       <c r="P11" t="n">
-        <v>321.3850043435856</v>
+        <v>321.4122014637148</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25136,28 +25194,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.601085884123398</v>
+        <v>0.6004743121064705</v>
       </c>
       <c r="J12" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K12" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2872691644606604</v>
+        <v>0.2879404962936317</v>
       </c>
       <c r="M12" t="n">
-        <v>5.532395253606868</v>
+        <v>5.521315874858385</v>
       </c>
       <c r="N12" t="n">
-        <v>50.42362310950315</v>
+        <v>50.29552758582199</v>
       </c>
       <c r="O12" t="n">
-        <v>7.100959309100648</v>
+        <v>7.09193398064463</v>
       </c>
       <c r="P12" t="n">
-        <v>322.020936806263</v>
+        <v>322.0269736278876</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25214,28 +25272,28 @@
         <v>0.0552</v>
       </c>
       <c r="I13" t="n">
-        <v>0.329110098580691</v>
+        <v>0.3289982497064039</v>
       </c>
       <c r="J13" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K13" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08939225863603684</v>
+        <v>0.08977802964946036</v>
       </c>
       <c r="M13" t="n">
-        <v>6.315813942261159</v>
+        <v>6.299900754511536</v>
       </c>
       <c r="N13" t="n">
-        <v>62.53418782532028</v>
+        <v>62.37104421028255</v>
       </c>
       <c r="O13" t="n">
-        <v>7.907856082739511</v>
+        <v>7.897534058823839</v>
       </c>
       <c r="P13" t="n">
-        <v>326.5817555999506</v>
+        <v>326.5828508074484</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25273,7 +25331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N420"/>
+  <dimension ref="A1:N421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33486,7 +33544,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-42.50597931416012,173.5093567209331</t>
+          <t>-42.505979314160115,173.5093567209331</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -36732,7 +36790,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>-42.50981345622444,173.50785458098636</t>
+          <t>-42.509813456224435,173.50785458098636</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -47635,7 +47693,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>-42.509190747250926,173.50820094105984</t>
+          <t>-42.50919074725093,173.50820094105984</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -52967,7 +53025,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>-42.50918842306464,173.5081881191946</t>
+          <t>-42.50918842306465,173.5081881191946</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -54066,6 +54124,78 @@
       <c r="N420" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>-42.505437363106495,173.5099509683642</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>-42.505990137652844,173.5093953451425</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>-42.50662840321536,173.50914482402268</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>-42.50726960881511,173.50890481707646</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>-42.50790265187328,173.5086292896264</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>-42.50854235586258,173.50839001173193</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>-42.50918053095104,173.50814458074728</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>-42.5098294348687,173.507958670888</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>-42.510475193401895,173.5077490237598</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>-42.511114316812446,173.50749492398373</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>-42.51177138381324,173.5073741040077</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>-42.512421261838654,173.50719870312062</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0396/nzd0396.xlsx
+++ b/data/nzd0396/nzd0396.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N421"/>
+  <dimension ref="A1:N422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19942,6 +19942,54 @@
         </is>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>333.51</v>
+      </c>
+      <c r="C422" t="n">
+        <v>317.0233333333333</v>
+      </c>
+      <c r="D422" t="n">
+        <v>329.5469230769231</v>
+      </c>
+      <c r="E422" t="n">
+        <v>337.9333333333333</v>
+      </c>
+      <c r="F422" t="n">
+        <v>347.2969230769231</v>
+      </c>
+      <c r="G422" t="n">
+        <v>349.6642857142857</v>
+      </c>
+      <c r="H422" t="n">
+        <v>343.8645454545455</v>
+      </c>
+      <c r="I422" t="n">
+        <v>341.7345454545454</v>
+      </c>
+      <c r="J422" t="n">
+        <v>343.5466666666666</v>
+      </c>
+      <c r="K422" t="n">
+        <v>340.76</v>
+      </c>
+      <c r="L422" t="n">
+        <v>332.1033333333333</v>
+      </c>
+      <c r="M422" t="n">
+        <v>328.37</v>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19953,7 +20001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B428"/>
+  <dimension ref="A1:B429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24241,6 +24289,16 @@
       </c>
       <c r="B428" t="n">
         <v>0.29</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -24414,28 +24472,28 @@
         <v>0.052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7740153573901746</v>
+        <v>0.7686041011633984</v>
       </c>
       <c r="J2" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K2" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2037327619650371</v>
+        <v>0.2019758856297866</v>
       </c>
       <c r="M2" t="n">
-        <v>8.58004357726568</v>
+        <v>8.589748395670068</v>
       </c>
       <c r="N2" t="n">
-        <v>132.1213258442992</v>
+        <v>132.0843127008587</v>
       </c>
       <c r="O2" t="n">
-        <v>11.49440411001367</v>
+        <v>11.49279394668062</v>
       </c>
       <c r="P2" t="n">
-        <v>324.2634146268551</v>
+        <v>324.3170443033202</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24492,28 +24550,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6457029331614321</v>
+        <v>0.6384963361384397</v>
       </c>
       <c r="J3" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K3" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2381951192621727</v>
+        <v>0.2339298227104588</v>
       </c>
       <c r="M3" t="n">
-        <v>6.823249528019092</v>
+        <v>6.847044133438216</v>
       </c>
       <c r="N3" t="n">
-        <v>74.13578416309112</v>
+        <v>74.44836031764358</v>
       </c>
       <c r="O3" t="n">
-        <v>8.610213944095182</v>
+        <v>8.628346325782454</v>
       </c>
       <c r="P3" t="n">
-        <v>314.1238616753076</v>
+        <v>314.1960782747277</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24570,28 +24628,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6665419793126526</v>
+        <v>0.6641998639515261</v>
       </c>
       <c r="J4" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K4" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3069926377567944</v>
+        <v>0.3064880296917284</v>
       </c>
       <c r="M4" t="n">
-        <v>5.774195460939074</v>
+        <v>5.773391072906072</v>
       </c>
       <c r="N4" t="n">
-        <v>56.36838209141028</v>
+        <v>56.27627294593</v>
       </c>
       <c r="O4" t="n">
-        <v>7.50788799140013</v>
+        <v>7.501751325252657</v>
       </c>
       <c r="P4" t="n">
-        <v>316.8044878751966</v>
+        <v>316.8276405319257</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24648,28 +24706,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6290296558681181</v>
+        <v>0.629019096957506</v>
       </c>
       <c r="J5" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K5" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2895387444626435</v>
+        <v>0.2906553122754512</v>
       </c>
       <c r="M5" t="n">
-        <v>5.694363413915926</v>
+        <v>5.680043579476775</v>
       </c>
       <c r="N5" t="n">
-        <v>54.37396952835601</v>
+        <v>54.23666266925399</v>
       </c>
       <c r="O5" t="n">
-        <v>7.373870729023937</v>
+        <v>7.364554478666988</v>
       </c>
       <c r="P5" t="n">
-        <v>321.5870224298098</v>
+        <v>321.5871271907459</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24726,28 +24784,28 @@
         <v>0.073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6096834623122782</v>
+        <v>0.611911820811705</v>
       </c>
       <c r="J6" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K6" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2967265165881303</v>
+        <v>0.2991643203278191</v>
       </c>
       <c r="M6" t="n">
-        <v>5.450543876093847</v>
+        <v>5.447187085979449</v>
       </c>
       <c r="N6" t="n">
-        <v>49.10901602468127</v>
+        <v>49.03655134798844</v>
       </c>
       <c r="O6" t="n">
-        <v>7.007782532633363</v>
+        <v>7.002610323871266</v>
       </c>
       <c r="P6" t="n">
-        <v>326.9046777896385</v>
+        <v>326.8824386674421</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24804,28 +24862,28 @@
         <v>0.0755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6287909948141056</v>
+        <v>0.6312736139647793</v>
       </c>
       <c r="J7" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K7" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3668854237691338</v>
+        <v>0.3695676672030944</v>
       </c>
       <c r="M7" t="n">
-        <v>4.936369929494581</v>
+        <v>4.935892957550304</v>
       </c>
       <c r="N7" t="n">
-        <v>38.54704534117975</v>
+        <v>38.51488841242023</v>
       </c>
       <c r="O7" t="n">
-        <v>6.208626687213505</v>
+        <v>6.206036449491755</v>
       </c>
       <c r="P7" t="n">
-        <v>328.2021336387498</v>
+        <v>328.1775254981546</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24882,28 +24940,28 @@
         <v>0.0649</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6547877412167323</v>
+        <v>0.6540968939112723</v>
       </c>
       <c r="J8" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K8" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3142797341614847</v>
+        <v>0.3149612002514642</v>
       </c>
       <c r="M8" t="n">
-        <v>5.529894474142292</v>
+        <v>5.519361658676283</v>
       </c>
       <c r="N8" t="n">
-        <v>52.84800483529993</v>
+        <v>52.71991114272567</v>
       </c>
       <c r="O8" t="n">
-        <v>7.269663323380247</v>
+        <v>7.260847825338696</v>
       </c>
       <c r="P8" t="n">
-        <v>328.2445779517139</v>
+        <v>328.2514120037055</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24960,28 +25018,28 @@
         <v>0.0601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5989194764848793</v>
+        <v>0.5980273026646572</v>
       </c>
       <c r="J9" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K9" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2683082271561799</v>
+        <v>0.2687436157341913</v>
       </c>
       <c r="M9" t="n">
-        <v>5.723498279476391</v>
+        <v>5.713722435886755</v>
       </c>
       <c r="N9" t="n">
-        <v>55.0628888048593</v>
+        <v>54.93151023317904</v>
       </c>
       <c r="O9" t="n">
-        <v>7.420437238118741</v>
+        <v>7.411579469531379</v>
       </c>
       <c r="P9" t="n">
-        <v>327.9740392882562</v>
+        <v>327.9829183365527</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25038,28 +25096,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6193312314752385</v>
+        <v>0.6208443050784271</v>
       </c>
       <c r="J10" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K10" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3347344234328454</v>
+        <v>0.3368615219514441</v>
       </c>
       <c r="M10" t="n">
-        <v>5.132976528751943</v>
+        <v>5.127453538325716</v>
       </c>
       <c r="N10" t="n">
-        <v>43.43763126677998</v>
+        <v>43.35315159847353</v>
       </c>
       <c r="O10" t="n">
-        <v>6.590723121690061</v>
+        <v>6.584311019269482</v>
       </c>
       <c r="P10" t="n">
-        <v>324.2728153400475</v>
+        <v>324.2578413670088</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25116,28 +25174,28 @@
         <v>0.0954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6623095660844966</v>
+        <v>0.6633364453451603</v>
       </c>
       <c r="J11" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K11" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3236805823935363</v>
+        <v>0.3254754093514078</v>
       </c>
       <c r="M11" t="n">
-        <v>5.326876314079237</v>
+        <v>5.318419743886067</v>
       </c>
       <c r="N11" t="n">
-        <v>51.64198223778728</v>
+        <v>51.52277205604593</v>
       </c>
       <c r="O11" t="n">
-        <v>7.186235609676827</v>
+        <v>7.17793647617795</v>
       </c>
       <c r="P11" t="n">
-        <v>321.4122014637148</v>
+        <v>321.4019799162321</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25194,28 +25252,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6004743121064705</v>
+        <v>0.5976898383278774</v>
       </c>
       <c r="J12" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K12" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2879404962936317</v>
+        <v>0.2868350591028221</v>
       </c>
       <c r="M12" t="n">
-        <v>5.521315874858385</v>
+        <v>5.522298960097849</v>
       </c>
       <c r="N12" t="n">
-        <v>50.29552758582199</v>
+        <v>50.24393431449344</v>
       </c>
       <c r="O12" t="n">
-        <v>7.09193398064463</v>
+        <v>7.088295585999037</v>
       </c>
       <c r="P12" t="n">
-        <v>322.0269736278876</v>
+        <v>322.0546646540212</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25272,28 +25330,28 @@
         <v>0.0552</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3289982497064039</v>
+        <v>0.3256097289300888</v>
       </c>
       <c r="J13" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K13" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08977802964946036</v>
+        <v>0.08839025410343737</v>
       </c>
       <c r="M13" t="n">
-        <v>6.299900754511536</v>
+        <v>6.300686978893471</v>
       </c>
       <c r="N13" t="n">
-        <v>62.37104421028255</v>
+        <v>62.32713608463349</v>
       </c>
       <c r="O13" t="n">
-        <v>7.897534058823839</v>
+        <v>7.89475370639474</v>
       </c>
       <c r="P13" t="n">
-        <v>326.5828508074484</v>
+        <v>326.6162791626084</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25331,7 +25389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N421"/>
+  <dimension ref="A1:N422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54199,6 +54257,78 @@
         </is>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>-42.505398258667924,173.5098114214061</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>-42.50596395073194,173.50930189582556</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>-42.50662216868189,173.50912257563317</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>-42.5072671846742,173.5088961663001</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>-42.50791530388529,173.50868062452275</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>-42.50855551904911,173.5084555771894</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>-42.50918368507101,173.50816198107833</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>-42.50982446182314,173.50792627483725</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>-42.51047998230215,173.50778508589943</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>-42.51112683649876,173.50758927585625</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>-42.51176474410829,173.5073232789287</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>-42.51241123014789,173.5071207516617</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0396/nzd0396.xlsx
+++ b/data/nzd0396/nzd0396.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N422"/>
+  <dimension ref="A1:N423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19990,6 +19990,54 @@
         </is>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>349.91</v>
+      </c>
+      <c r="C423" t="n">
+        <v>332.9166666666667</v>
+      </c>
+      <c r="D423" t="n">
+        <v>332.95</v>
+      </c>
+      <c r="E423" t="n">
+        <v>336.1966666666667</v>
+      </c>
+      <c r="F423" t="n">
+        <v>342.82</v>
+      </c>
+      <c r="G423" t="n">
+        <v>343.5171428571429</v>
+      </c>
+      <c r="H423" t="n">
+        <v>342.5236363636364</v>
+      </c>
+      <c r="I423" t="n">
+        <v>343.9636363636364</v>
+      </c>
+      <c r="J423" t="n">
+        <v>344.7333333333333</v>
+      </c>
+      <c r="K423" t="n">
+        <v>331.705</v>
+      </c>
+      <c r="L423" t="n">
+        <v>330.4466666666667</v>
+      </c>
+      <c r="M423" t="n">
+        <v>338.12</v>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20001,7 +20049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B429"/>
+  <dimension ref="A1:B430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24299,6 +24347,16 @@
       </c>
       <c r="B429" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -24472,28 +24530,28 @@
         <v>0.052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7686041011633984</v>
+        <v>0.7713488970034901</v>
       </c>
       <c r="J2" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K2" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2019758856297866</v>
+        <v>0.2039218294459009</v>
       </c>
       <c r="M2" t="n">
-        <v>8.589748395670068</v>
+        <v>8.579763146296626</v>
       </c>
       <c r="N2" t="n">
-        <v>132.0843127008587</v>
+        <v>131.8233094233194</v>
       </c>
       <c r="O2" t="n">
-        <v>11.49279394668062</v>
+        <v>11.48143324778398</v>
       </c>
       <c r="P2" t="n">
-        <v>324.3170443033202</v>
+        <v>324.2897283735056</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24550,28 +24608,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6384963361384397</v>
+        <v>0.6395590080195903</v>
       </c>
       <c r="J3" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K3" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2339298227104588</v>
+        <v>0.2355233296898954</v>
       </c>
       <c r="M3" t="n">
-        <v>6.847044133438216</v>
+        <v>6.833532753921403</v>
       </c>
       <c r="N3" t="n">
-        <v>74.44836031764358</v>
+        <v>74.26194591417033</v>
       </c>
       <c r="O3" t="n">
-        <v>8.628346325782454</v>
+        <v>8.617537114174231</v>
       </c>
       <c r="P3" t="n">
-        <v>314.1960782747277</v>
+        <v>314.1853857491404</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24628,28 +24686,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6641998639515261</v>
+        <v>0.6635797703130712</v>
       </c>
       <c r="J4" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K4" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3064880296917284</v>
+        <v>0.3072816762045737</v>
       </c>
       <c r="M4" t="n">
-        <v>5.773391072906072</v>
+        <v>5.762127002421528</v>
       </c>
       <c r="N4" t="n">
-        <v>56.27627294593</v>
+        <v>56.13392657541743</v>
       </c>
       <c r="O4" t="n">
-        <v>7.501751325252657</v>
+        <v>7.492257775558541</v>
       </c>
       <c r="P4" t="n">
-        <v>316.8276405319257</v>
+        <v>316.8337954069996</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24706,28 +24764,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.629019096957506</v>
+        <v>0.6281236355393184</v>
       </c>
       <c r="J5" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K5" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2906553122754512</v>
+        <v>0.2911676618851464</v>
       </c>
       <c r="M5" t="n">
-        <v>5.680043579476775</v>
+        <v>5.670824335249562</v>
       </c>
       <c r="N5" t="n">
-        <v>54.23666266925399</v>
+        <v>54.1082597219379</v>
       </c>
       <c r="O5" t="n">
-        <v>7.364554478666988</v>
+        <v>7.35583168118588</v>
       </c>
       <c r="P5" t="n">
-        <v>321.5871271907459</v>
+        <v>321.5960477884323</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24784,28 +24842,28 @@
         <v>0.073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.611911820811705</v>
+        <v>0.6118929608678363</v>
       </c>
       <c r="J6" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K6" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2991643203278191</v>
+        <v>0.3002917534501638</v>
       </c>
       <c r="M6" t="n">
-        <v>5.447187085979449</v>
+        <v>5.433604888042066</v>
       </c>
       <c r="N6" t="n">
-        <v>49.03655134798844</v>
+        <v>48.91334759307728</v>
       </c>
       <c r="O6" t="n">
-        <v>7.002610323871266</v>
+        <v>6.993807803555748</v>
       </c>
       <c r="P6" t="n">
-        <v>326.8824386674421</v>
+        <v>326.8826276587185</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24862,28 +24920,28 @@
         <v>0.0755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6312736139647793</v>
+        <v>0.630717836062617</v>
       </c>
       <c r="J7" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K7" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3695676672030944</v>
+        <v>0.3703896155763573</v>
       </c>
       <c r="M7" t="n">
-        <v>4.935892957550304</v>
+        <v>4.926512738395061</v>
       </c>
       <c r="N7" t="n">
-        <v>38.51488841242023</v>
+        <v>38.4211314587225</v>
       </c>
       <c r="O7" t="n">
-        <v>6.206036449491755</v>
+        <v>6.198478156670595</v>
       </c>
       <c r="P7" t="n">
-        <v>328.1775254981546</v>
+        <v>328.1830574128476</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24940,28 +24998,28 @@
         <v>0.0649</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6540968939112723</v>
+        <v>0.6527301776235431</v>
       </c>
       <c r="J8" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K8" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3149612002514642</v>
+        <v>0.3151425270740051</v>
       </c>
       <c r="M8" t="n">
-        <v>5.519361658676283</v>
+        <v>5.512209646953582</v>
       </c>
       <c r="N8" t="n">
-        <v>52.71991114272567</v>
+        <v>52.60706261391518</v>
       </c>
       <c r="O8" t="n">
-        <v>7.260847825338696</v>
+        <v>7.253072632609933</v>
       </c>
       <c r="P8" t="n">
-        <v>328.2514120037055</v>
+        <v>328.264987982051</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25018,28 +25076,28 @@
         <v>0.0601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5980273026646572</v>
+        <v>0.5982070256026</v>
       </c>
       <c r="J9" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K9" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2687436157341913</v>
+        <v>0.2699195279051138</v>
       </c>
       <c r="M9" t="n">
-        <v>5.713722435886755</v>
+        <v>5.700155405147139</v>
       </c>
       <c r="N9" t="n">
-        <v>54.93151023317904</v>
+        <v>54.79278203189856</v>
       </c>
       <c r="O9" t="n">
-        <v>7.411579469531379</v>
+        <v>7.402214670752164</v>
       </c>
       <c r="P9" t="n">
-        <v>327.9829183365527</v>
+        <v>327.9811222586699</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25096,28 +25154,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6208443050784271</v>
+        <v>0.622888617247419</v>
       </c>
       <c r="J10" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K10" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3368615219514441</v>
+        <v>0.3392757113889516</v>
       </c>
       <c r="M10" t="n">
-        <v>5.127453538325716</v>
+        <v>5.124581484833546</v>
       </c>
       <c r="N10" t="n">
-        <v>43.35315159847353</v>
+        <v>43.28960380231761</v>
       </c>
       <c r="O10" t="n">
-        <v>6.584311019269482</v>
+        <v>6.579483551337264</v>
       </c>
       <c r="P10" t="n">
-        <v>324.2578413670088</v>
+        <v>324.2375240703777</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25174,28 +25232,28 @@
         <v>0.0954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6633364453451603</v>
+        <v>0.6599283298350984</v>
       </c>
       <c r="J11" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K11" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3254754093514078</v>
+        <v>0.3238624483056364</v>
       </c>
       <c r="M11" t="n">
-        <v>5.318419743886067</v>
+        <v>5.323692966127267</v>
       </c>
       <c r="N11" t="n">
-        <v>51.52277205604593</v>
+        <v>51.51599301438214</v>
       </c>
       <c r="O11" t="n">
-        <v>7.17793647617795</v>
+        <v>7.177464246820191</v>
       </c>
       <c r="P11" t="n">
-        <v>321.4019799162321</v>
+        <v>321.4360459717134</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25252,28 +25310,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5976898383278774</v>
+        <v>0.5940704876005444</v>
       </c>
       <c r="J12" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K12" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2868350591028221</v>
+        <v>0.2849343049601426</v>
       </c>
       <c r="M12" t="n">
-        <v>5.522298960097849</v>
+        <v>5.527812279690923</v>
       </c>
       <c r="N12" t="n">
-        <v>50.24393431449344</v>
+        <v>50.24746658151372</v>
       </c>
       <c r="O12" t="n">
-        <v>7.088295585999037</v>
+        <v>7.088544743564346</v>
       </c>
       <c r="P12" t="n">
-        <v>322.0546646540212</v>
+        <v>322.0908088725324</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25330,28 +25388,28 @@
         <v>0.0552</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3256097289300888</v>
+        <v>0.3271115766021365</v>
       </c>
       <c r="J13" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K13" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08839025410343737</v>
+        <v>0.08955468686270518</v>
       </c>
       <c r="M13" t="n">
-        <v>6.300686978893471</v>
+        <v>6.292255180969184</v>
       </c>
       <c r="N13" t="n">
-        <v>62.32713608463349</v>
+        <v>62.18847566350348</v>
       </c>
       <c r="O13" t="n">
-        <v>7.89475370639474</v>
+        <v>7.885967008775999</v>
       </c>
       <c r="P13" t="n">
-        <v>326.6162791626084</v>
+        <v>326.6014011123734</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25389,7 +25447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N422"/>
+  <dimension ref="A1:N423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54329,6 +54387,78 @@
         </is>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>-42.50545056799245,173.5099980911117</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>-42.506014644628706,173.5094827998109</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>-42.506633023293844,173.5091613111241</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>-42.50726164529714,173.50887639851993</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>-42.50790256211157,173.5086289254232</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>-42.508541021685446,173.50838336624557</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>-42.509180811490545,173.50814612839866</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>-42.50982854005382,173.50795284176544</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>-42.510481870281836,173.50779930308997</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>-42.51111244084004,173.50748078618253</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>-42.51176214981492,173.50730342039049</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>-42.51242627766409,173.50723767885927</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0396/nzd0396.xlsx
+++ b/data/nzd0396/nzd0396.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N423"/>
+  <dimension ref="A1:N424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20038,6 +20038,54 @@
         </is>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>351.11</v>
+      </c>
+      <c r="C424" t="n">
+        <v>335.84</v>
+      </c>
+      <c r="D424" t="n">
+        <v>334.8915384615385</v>
+      </c>
+      <c r="E424" t="n">
+        <v>337.51</v>
+      </c>
+      <c r="F424" t="n">
+        <v>346.4415384615385</v>
+      </c>
+      <c r="G424" t="n">
+        <v>341.8</v>
+      </c>
+      <c r="H424" t="n">
+        <v>348.0763636363636</v>
+      </c>
+      <c r="I424" t="n">
+        <v>348.5463636363637</v>
+      </c>
+      <c r="J424" t="n">
+        <v>343.06</v>
+      </c>
+      <c r="K424" t="n">
+        <v>334.25</v>
+      </c>
+      <c r="L424" t="n">
+        <v>334.63</v>
+      </c>
+      <c r="M424" t="n">
+        <v>336.55</v>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20049,7 +20097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B430"/>
+  <dimension ref="A1:B431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24357,6 +24405,16 @@
       </c>
       <c r="B430" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -24530,28 +24588,28 @@
         <v>0.052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7713488970034901</v>
+        <v>0.7746375398704501</v>
       </c>
       <c r="J2" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K2" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2039218294459009</v>
+        <v>0.2060618690718707</v>
       </c>
       <c r="M2" t="n">
-        <v>8.579763146296626</v>
+        <v>8.572448074876622</v>
       </c>
       <c r="N2" t="n">
-        <v>131.8233094233194</v>
+        <v>131.5982934987506</v>
       </c>
       <c r="O2" t="n">
-        <v>11.48143324778398</v>
+        <v>11.47162994080399</v>
       </c>
       <c r="P2" t="n">
-        <v>324.2897283735056</v>
+        <v>324.2569327559422</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24608,28 +24666,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6395590080195903</v>
+        <v>0.6421022197452252</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K3" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2355233296898954</v>
+        <v>0.2378274922503408</v>
       </c>
       <c r="M3" t="n">
-        <v>6.833532753921403</v>
+        <v>6.826505467421897</v>
       </c>
       <c r="N3" t="n">
-        <v>74.26194591417033</v>
+        <v>74.1292227908465</v>
       </c>
       <c r="O3" t="n">
-        <v>8.617537114174231</v>
+        <v>8.609832913062046</v>
       </c>
       <c r="P3" t="n">
-        <v>314.1853857491404</v>
+        <v>314.1597441664769</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24686,28 +24744,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6635797703130712</v>
+        <v>0.6639363676218958</v>
       </c>
       <c r="J4" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K4" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3072816762045737</v>
+        <v>0.308710184859853</v>
       </c>
       <c r="M4" t="n">
-        <v>5.762127002421528</v>
+        <v>5.748683253040682</v>
       </c>
       <c r="N4" t="n">
-        <v>56.13392657541743</v>
+        <v>55.98977474452682</v>
       </c>
       <c r="O4" t="n">
-        <v>7.492257775558541</v>
+        <v>7.482631538738683</v>
       </c>
       <c r="P4" t="n">
-        <v>316.8337954069996</v>
+        <v>316.8302487525651</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24764,28 +24822,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6281236355393184</v>
+        <v>0.6278714197336038</v>
       </c>
       <c r="J5" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K5" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2911676618851464</v>
+        <v>0.2921293604231724</v>
       </c>
       <c r="M5" t="n">
-        <v>5.670824335249562</v>
+        <v>5.658013654294257</v>
       </c>
       <c r="N5" t="n">
-        <v>54.1082597219379</v>
+        <v>53.9729645383112</v>
       </c>
       <c r="O5" t="n">
-        <v>7.35583168118588</v>
+        <v>7.346629467879213</v>
       </c>
       <c r="P5" t="n">
-        <v>321.5960477884323</v>
+        <v>321.5985654460879</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24842,28 +24900,28 @@
         <v>0.073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6118929608678363</v>
+        <v>0.6136365129696791</v>
       </c>
       <c r="J6" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K6" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3002917534501638</v>
+        <v>0.3024954258686828</v>
       </c>
       <c r="M6" t="n">
-        <v>5.433604888042066</v>
+        <v>5.428102191517313</v>
       </c>
       <c r="N6" t="n">
-        <v>48.91334759307728</v>
+        <v>48.8222121897175</v>
       </c>
       <c r="O6" t="n">
-        <v>6.993807803555748</v>
+        <v>6.987289330614376</v>
       </c>
       <c r="P6" t="n">
-        <v>326.8826276587185</v>
+        <v>326.8651205489665</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24920,28 +24978,28 @@
         <v>0.0755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.630717836062617</v>
+        <v>0.6293225683271166</v>
       </c>
       <c r="J7" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K7" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3703896155763573</v>
+        <v>0.3704809885949796</v>
       </c>
       <c r="M7" t="n">
-        <v>4.926512738395061</v>
+        <v>4.921750937238195</v>
       </c>
       <c r="N7" t="n">
-        <v>38.4211314587225</v>
+        <v>38.34523764354479</v>
       </c>
       <c r="O7" t="n">
-        <v>6.198478156670595</v>
+        <v>6.192353158819738</v>
       </c>
       <c r="P7" t="n">
-        <v>328.1830574128476</v>
+        <v>328.1969738491341</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24998,28 +25056,28 @@
         <v>0.0649</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6527301776235431</v>
+        <v>0.6540605649079801</v>
       </c>
       <c r="J8" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K8" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3151425270740051</v>
+        <v>0.3171097157024386</v>
       </c>
       <c r="M8" t="n">
-        <v>5.512209646953582</v>
+        <v>5.505530220856246</v>
       </c>
       <c r="N8" t="n">
-        <v>52.60706261391518</v>
+        <v>52.49389992467205</v>
       </c>
       <c r="O8" t="n">
-        <v>7.253072632609933</v>
+        <v>7.245267415677081</v>
       </c>
       <c r="P8" t="n">
-        <v>328.264987982051</v>
+        <v>328.2517457021733</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25076,28 +25134,28 @@
         <v>0.0601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5982070256026</v>
+        <v>0.6006052957446829</v>
       </c>
       <c r="J9" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K9" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2699195279051138</v>
+        <v>0.2723423644258337</v>
       </c>
       <c r="M9" t="n">
-        <v>5.700155405147139</v>
+        <v>5.697665908753127</v>
       </c>
       <c r="N9" t="n">
-        <v>54.79278203189856</v>
+        <v>54.71508662374161</v>
       </c>
       <c r="O9" t="n">
-        <v>7.402214670752164</v>
+        <v>7.39696468990772</v>
       </c>
       <c r="P9" t="n">
-        <v>327.9811222586699</v>
+        <v>327.9571054316327</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25154,28 +25212,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.622888617247419</v>
+        <v>0.6240976587742018</v>
       </c>
       <c r="J10" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K10" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3392757113889516</v>
+        <v>0.3412420299815397</v>
       </c>
       <c r="M10" t="n">
-        <v>5.124581484833546</v>
+        <v>5.117618633186413</v>
       </c>
       <c r="N10" t="n">
-        <v>43.28960380231761</v>
+        <v>43.19706119637192</v>
       </c>
       <c r="O10" t="n">
-        <v>6.579483551337264</v>
+        <v>6.572447123893194</v>
       </c>
       <c r="P10" t="n">
-        <v>324.2375240703777</v>
+        <v>324.2254827539219</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25232,28 +25290,28 @@
         <v>0.0954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6599283298350984</v>
+        <v>0.6577774817947315</v>
       </c>
       <c r="J11" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K11" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3238624483056364</v>
+        <v>0.3233889182937897</v>
       </c>
       <c r="M11" t="n">
-        <v>5.323692966127267</v>
+        <v>5.322025122917957</v>
       </c>
       <c r="N11" t="n">
-        <v>51.51599301438214</v>
+        <v>51.43579948989817</v>
       </c>
       <c r="O11" t="n">
-        <v>7.177464246820191</v>
+        <v>7.171875590798977</v>
       </c>
       <c r="P11" t="n">
-        <v>321.4360459717134</v>
+        <v>321.457589450595</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25310,28 +25368,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5940704876005444</v>
+        <v>0.592572759985138</v>
       </c>
       <c r="J12" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K12" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2849343049601426</v>
+        <v>0.2849323104638916</v>
       </c>
       <c r="M12" t="n">
-        <v>5.527812279690923</v>
+        <v>5.521635132986142</v>
       </c>
       <c r="N12" t="n">
-        <v>50.24746658151372</v>
+        <v>50.14009396277319</v>
       </c>
       <c r="O12" t="n">
-        <v>7.088544743564346</v>
+        <v>7.080967021726142</v>
       </c>
       <c r="P12" t="n">
-        <v>322.0908088725324</v>
+        <v>322.1057967726953</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25388,28 +25446,28 @@
         <v>0.0552</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3271115766021365</v>
+        <v>0.3278059318366592</v>
       </c>
       <c r="J13" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K13" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08955468686270518</v>
+        <v>0.0903471552020505</v>
       </c>
       <c r="M13" t="n">
-        <v>6.292255180969184</v>
+        <v>6.279598265468344</v>
       </c>
       <c r="N13" t="n">
-        <v>62.18847566350348</v>
+        <v>62.03235917774775</v>
       </c>
       <c r="O13" t="n">
-        <v>7.885967008775999</v>
+        <v>7.876062415810819</v>
       </c>
       <c r="P13" t="n">
-        <v>326.6014011123734</v>
+        <v>326.5945081926643</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25447,7 +25505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N423"/>
+  <dimension ref="A1:N424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54459,6 +54517,78 @@
         </is>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>-42.505454395491974,173.51001174988278</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>-42.50602396895718,173.50951607433814</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-42.50663921610906,173.50918341067327</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-42.50726583438492,173.50889134766624</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-42.507912869376376,173.50867074661758</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>-42.50853697198379,173.50836319484674</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>-42.50919271102165,173.50821177462313</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>-42.50983692435776,173.50800746000004</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>-42.510479208017834,173.50777925525412</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>-42.51111648689699,173.50751127830569</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>-42.51176870079054,173.50735356619938</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>-42.51242385463624,173.5072188505786</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0396/nzd0396.xlsx
+++ b/data/nzd0396/nzd0396.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N424"/>
+  <dimension ref="A1:N425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20086,6 +20086,52 @@
         </is>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="D425" t="n">
+        <v>337.2607692307692</v>
+      </c>
+      <c r="E425" t="n">
+        <v>339.38</v>
+      </c>
+      <c r="F425" t="n">
+        <v>346.3107692307692</v>
+      </c>
+      <c r="G425" t="n">
+        <v>347.1471428571429</v>
+      </c>
+      <c r="H425" t="n">
+        <v>346.9763636363636</v>
+      </c>
+      <c r="I425" t="n">
+        <v>351.2163636363636</v>
+      </c>
+      <c r="J425" t="n">
+        <v>343.54</v>
+      </c>
+      <c r="K425" t="n">
+        <v>339.295</v>
+      </c>
+      <c r="L425" t="n">
+        <v>335.85</v>
+      </c>
+      <c r="M425" t="n">
+        <v>331.76</v>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20097,7 +20143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24415,6 +24461,16 @@
       </c>
       <c r="B431" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -25505,7 +25561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N424"/>
+  <dimension ref="A1:N425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54589,6 +54645,74 @@
         </is>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>-42.506016824204636,173.5094905777782</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>-42.50664677310435,173.5092103784333</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-42.50727179904711,173.50891263312928</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-42.50791249719419,173.50866923650625</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-42.508549582648705,173.5084260081213</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>-42.5091903537174,173.50819877004824</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-42.509841809229805,173.5080392818188</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>-42.510479971695524,173.50778500602758</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>-42.51112450744555,173.50757172340988</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>-42.51177061127012,173.50736819039736</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>-42.512416462067094,173.5071614063426</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0396/nzd0396.xlsx
+++ b/data/nzd0396/nzd0396.xlsx
@@ -24647,7 +24647,7 @@
         <v>0.7746375398704501</v>
       </c>
       <c r="J2" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K2" t="n">
         <v>391</v>
@@ -24722,28 +24722,28 @@
         <v>0.0646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6421022197452252</v>
+        <v>0.6434527844862717</v>
       </c>
       <c r="J3" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K3" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2378274922503408</v>
+        <v>0.2395710321303843</v>
       </c>
       <c r="M3" t="n">
-        <v>6.826505467421897</v>
+        <v>6.8143334719697</v>
       </c>
       <c r="N3" t="n">
-        <v>74.1292227908465</v>
+        <v>73.95178571862249</v>
       </c>
       <c r="O3" t="n">
-        <v>8.609832913062046</v>
+        <v>8.599522412240256</v>
       </c>
       <c r="P3" t="n">
-        <v>314.1597441664769</v>
+        <v>314.1461134503752</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24800,28 +24800,28 @@
         <v>0.0718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6639363676218958</v>
+        <v>0.665473432534491</v>
       </c>
       <c r="J4" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K4" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L4" t="n">
-        <v>0.308710184859853</v>
+        <v>0.3108074639419889</v>
       </c>
       <c r="M4" t="n">
-        <v>5.748683253040682</v>
+        <v>5.740194596477192</v>
       </c>
       <c r="N4" t="n">
-        <v>55.98977474452682</v>
+        <v>55.8689824756883</v>
       </c>
       <c r="O4" t="n">
-        <v>7.482631538738683</v>
+        <v>7.474555670786612</v>
       </c>
       <c r="P4" t="n">
-        <v>316.8302487525651</v>
+        <v>316.8149458856386</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24878,28 +24878,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6278714197336038</v>
+        <v>0.6285304116151952</v>
       </c>
       <c r="J5" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K5" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2921293604231724</v>
+        <v>0.2936721387293536</v>
       </c>
       <c r="M5" t="n">
-        <v>5.658013654294257</v>
+        <v>5.646794755839084</v>
       </c>
       <c r="N5" t="n">
-        <v>53.9729645383112</v>
+        <v>53.84220951241703</v>
       </c>
       <c r="O5" t="n">
-        <v>7.346629467879213</v>
+        <v>7.33772509109036</v>
       </c>
       <c r="P5" t="n">
-        <v>321.5985654460879</v>
+        <v>321.5919806349031</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24956,28 +24956,28 @@
         <v>0.073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6136365129696791</v>
+        <v>0.6152858438270801</v>
       </c>
       <c r="J6" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K6" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3024954258686828</v>
+        <v>0.3046455419412927</v>
       </c>
       <c r="M6" t="n">
-        <v>5.428102191517313</v>
+        <v>5.422226954345088</v>
       </c>
       <c r="N6" t="n">
-        <v>48.8222121897175</v>
+        <v>48.72856735416082</v>
       </c>
       <c r="O6" t="n">
-        <v>6.987289330614376</v>
+        <v>6.980585029505824</v>
       </c>
       <c r="P6" t="n">
-        <v>326.8651205489665</v>
+        <v>326.848542760862</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25034,28 +25034,28 @@
         <v>0.0755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6293225683271166</v>
+        <v>0.6305172753306325</v>
       </c>
       <c r="J7" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K7" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3704809885949796</v>
+        <v>0.3725168464916967</v>
       </c>
       <c r="M7" t="n">
-        <v>4.921750937238195</v>
+        <v>4.915248557790102</v>
       </c>
       <c r="N7" t="n">
-        <v>38.34523764354479</v>
+        <v>38.26440845934157</v>
       </c>
       <c r="O7" t="n">
-        <v>6.192353158819738</v>
+        <v>6.185823183646746</v>
       </c>
       <c r="P7" t="n">
-        <v>328.1969738491341</v>
+        <v>328.1850455040268</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25112,28 +25112,28 @@
         <v>0.0649</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6540605649079801</v>
+        <v>0.6548351199117807</v>
       </c>
       <c r="J8" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K8" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3171097157024386</v>
+        <v>0.3187564189151376</v>
       </c>
       <c r="M8" t="n">
-        <v>5.505530220856246</v>
+        <v>5.49594095582102</v>
       </c>
       <c r="N8" t="n">
-        <v>52.49389992467205</v>
+        <v>52.36905751676431</v>
       </c>
       <c r="O8" t="n">
-        <v>7.245267415677081</v>
+        <v>7.236646842064653</v>
       </c>
       <c r="P8" t="n">
-        <v>328.2517457021733</v>
+        <v>328.2440280877801</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25190,28 +25190,28 @@
         <v>0.0601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6006052957446829</v>
+        <v>0.6042580774757914</v>
       </c>
       <c r="J9" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K9" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2723423644258337</v>
+        <v>0.2752972851705716</v>
       </c>
       <c r="M9" t="n">
-        <v>5.697665908753127</v>
+        <v>5.701363094227721</v>
       </c>
       <c r="N9" t="n">
-        <v>54.71508662374161</v>
+        <v>54.7193139779485</v>
       </c>
       <c r="O9" t="n">
-        <v>7.39696468990772</v>
+        <v>7.397250433637386</v>
       </c>
       <c r="P9" t="n">
-        <v>327.9571054316327</v>
+        <v>327.9204878761483</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25268,28 +25268,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6240976587742018</v>
+        <v>0.6255118518761419</v>
       </c>
       <c r="J10" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K10" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3412420299815397</v>
+        <v>0.3433207387442303</v>
       </c>
       <c r="M10" t="n">
-        <v>5.117618633186413</v>
+        <v>5.111696821223815</v>
       </c>
       <c r="N10" t="n">
-        <v>43.19706119637192</v>
+        <v>43.11109105365369</v>
       </c>
       <c r="O10" t="n">
-        <v>6.572447123893194</v>
+        <v>6.56590367380254</v>
       </c>
       <c r="P10" t="n">
-        <v>324.2254827539219</v>
+        <v>324.2113834207925</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25346,28 +25346,28 @@
         <v>0.0954</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6577774817947315</v>
+        <v>0.6580761926098865</v>
       </c>
       <c r="J11" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K11" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3233889182937897</v>
+        <v>0.3247424871144263</v>
       </c>
       <c r="M11" t="n">
-        <v>5.322025122917957</v>
+        <v>5.310155627394343</v>
       </c>
       <c r="N11" t="n">
-        <v>51.43579948989817</v>
+        <v>51.30784622464061</v>
       </c>
       <c r="O11" t="n">
-        <v>7.171875590798977</v>
+        <v>7.162949547821806</v>
       </c>
       <c r="P11" t="n">
-        <v>321.457589450595</v>
+        <v>321.4545943841256</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25424,28 +25424,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.592572759985138</v>
+        <v>0.5916956647300848</v>
       </c>
       <c r="J12" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K12" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2849323104638916</v>
+        <v>0.2854095496806007</v>
       </c>
       <c r="M12" t="n">
-        <v>5.521635132986142</v>
+        <v>5.512099923533611</v>
       </c>
       <c r="N12" t="n">
-        <v>50.14009396277319</v>
+        <v>50.01820954410003</v>
       </c>
       <c r="O12" t="n">
-        <v>7.080967021726142</v>
+        <v>7.072355303864479</v>
       </c>
       <c r="P12" t="n">
-        <v>322.1057967726953</v>
+        <v>322.1145830489731</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25502,28 +25502,28 @@
         <v>0.0552</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3278059318366592</v>
+        <v>0.3261154944623888</v>
       </c>
       <c r="J13" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K13" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0903471552020505</v>
+        <v>0.08990927782854086</v>
       </c>
       <c r="M13" t="n">
-        <v>6.279598265468344</v>
+        <v>6.272043928946672</v>
       </c>
       <c r="N13" t="n">
-        <v>62.03235917774775</v>
+        <v>61.90195197389485</v>
       </c>
       <c r="O13" t="n">
-        <v>7.876062415810819</v>
+        <v>7.867779354677841</v>
       </c>
       <c r="P13" t="n">
-        <v>326.5945081926643</v>
+        <v>326.6113067330784</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">

--- a/data/nzd0396/nzd0396.xlsx
+++ b/data/nzd0396/nzd0396.xlsx
@@ -24638,10 +24638,10 @@
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0447</v>
+        <v>0.0423</v>
       </c>
       <c r="H2" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="I2" t="n">
         <v>0.7746375398704504</v>
@@ -24713,13 +24713,13 @@
         <v>0.09092373840360968</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.054</v>
+        <v>0.0679</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0646</v>
+        <v>0.0829</v>
       </c>
       <c r="I3" t="n">
         <v>0.64343326187835</v>
@@ -24791,13 +24791,13 @@
         <v>0.1818474768072194</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0592</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0718</v>
+        <v>0.0808</v>
       </c>
       <c r="I4" t="n">
         <v>0.6654700131594867</v>
@@ -24869,13 +24869,13 @@
         <v>0.2727712152116196</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0533</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.0945</v>
       </c>
       <c r="I5" t="n">
         <v>0.6285119816118538</v>
@@ -24947,13 +24947,13 @@
         <v>0.3636949536151736</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0589</v>
+        <v>0.0786</v>
       </c>
       <c r="H6" t="n">
-        <v>0.073</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>0.6152829713184284</v>
@@ -25025,13 +25025,13 @@
         <v>0.4545003860062276</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0634</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0755</v>
+        <v>0.0907</v>
       </c>
       <c r="I7" t="n">
         <v>0.6304839802931467</v>
@@ -25103,13 +25103,13 @@
         <v>0.5454241244101151</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0508</v>
+        <v>0.0755</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0649</v>
+        <v>0.0856</v>
       </c>
       <c r="I8" t="n">
         <v>0.6547917817810928</v>
@@ -25181,13 +25181,13 @@
         <v>0.6363051100346141</v>
       </c>
       <c r="F9" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0484</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0601</v>
+        <v>0.097</v>
       </c>
       <c r="I9" t="n">
         <v>0.6042236387730349</v>
@@ -25262,10 +25262,10 @@
         <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.0806</v>
       </c>
       <c r="I10" t="n">
         <v>0.6255267503164395</v>
@@ -25340,10 +25340,10 @@
         <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0711</v>
+        <v>0.0742</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0954</v>
+        <v>0.0898</v>
       </c>
       <c r="I11" t="n">
         <v>0.6580435177824613</v>
@@ -25415,13 +25415,13 @@
         <v>0.9090762615969876</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0546</v>
+        <v>0.065</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>0.5916793744364248</v>
@@ -25493,13 +25493,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0457</v>
+        <v>0.0804</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0552</v>
+        <v>0.1069</v>
       </c>
       <c r="I13" t="n">
         <v>0.3261154944623888</v>
